--- a/Assignment_3/test/tests_data.xlsx
+++ b/Assignment_3/test/tests_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ventura\Ingenieria\Tercer curso\Metaheurísticas\Assignments\Metaheuristics\Assignment_3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9FDE2-25D1-4F64-95C5-8A1981213F36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56432989-13ED-4669-B309-91C77B925BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="5310" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6AA978-5457-4EF5-9CA1-C5DE5FF69E1E}"/>
+    <workbookView xWindow="4290" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6AA978-5457-4EF5-9CA1-C5DE5FF69E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAAB936-9C60-4AB6-8FC5-F3D78DC1CE1D}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
